--- a/api_routes_postman.xlsx
+++ b/api_routes_postman.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romelyn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68364B1-DC74-4D1E-B221-81898E1EAC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C8C185-1BE6-4230-B498-D60AC96387DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="67">
   <si>
     <t>HTTP Method</t>
   </si>
@@ -91,9 +91,6 @@
     <t>api/positions/{position}</t>
   </si>
   <si>
-    <t>api/profile</t>
-  </si>
-  <si>
     <t>api/profile/userInfos</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>api/test</t>
   </si>
   <si>
-    <t>api/transportation-requests</t>
-  </si>
-  <si>
     <t>api/transportation-requests/{transportation_request}</t>
   </si>
   <si>
@@ -187,9 +181,6 @@
     <t>api/maintenance-requests/{id}/verify</t>
   </si>
   <si>
-    <t>api/maintenance-requests/{id}/view</t>
-  </si>
-  <si>
     <t>api/profile/update</t>
   </si>
   <si>
@@ -199,41 +190,44 @@
     <t>api/notifications/markAsRead/{id}</t>
   </si>
   <si>
-    <t>api/notifications/{id}/read</t>
-  </si>
-  <si>
     <t>api/users/{id}/updateAccountStatus</t>
   </si>
   <si>
     <t>201 created</t>
   </si>
   <si>
-    <t>204 no content</t>
-  </si>
-  <si>
     <t>403 forbidden</t>
   </si>
   <si>
     <t>200 OK</t>
   </si>
   <si>
-    <t>404 not found</t>
-  </si>
-  <si>
-    <t>500 Internal server error</t>
-  </si>
-  <si>
-    <t>200 ok</t>
-  </si>
-  <si>
     <t>Test Result</t>
+  </si>
+  <si>
+    <t>204 NO CONTENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>api/maintenance-requests/id/approve-head</t>
+  </si>
+  <si>
+    <t>api/maintenance-requests/id/approve-director</t>
+  </si>
+  <si>
+    <t>api/maintenance-requests/{id}/updateDetails</t>
+  </si>
+  <si>
+    <t>api/directorpov/{id}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,13 +239,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF6BDD9A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -298,12 +285,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,9 +605,12 @@
     <col min="1" max="1" width="16.21875" customWidth="1"/>
     <col min="2" max="2" width="52.6640625" customWidth="1"/>
     <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="50" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,297 +618,565 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="G22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="G23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
         <v>22</v>
       </c>
-      <c r="C18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="G24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="G25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
         <v>27</v>
       </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
         <v>31</v>
       </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -927,7 +1184,10 @@
         <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -935,7 +1195,10 @@
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -943,48 +1206,43 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -995,7 +1253,7 @@
         <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1003,10 +1261,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1014,10 +1272,10 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1025,10 +1283,10 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1036,10 +1294,10 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1047,10 +1305,10 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1058,10 +1316,10 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1069,10 +1327,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1080,10 +1338,10 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1091,319 +1349,14 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" t="s">
-        <v>55</v>
-      </c>
-      <c r="C60" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" t="s">
-        <v>19</v>
-      </c>
-      <c r="C62" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" t="s">
-        <v>56</v>
-      </c>
-      <c r="C64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" t="s">
-        <v>57</v>
-      </c>
-      <c r="C69" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>4</v>
-      </c>
-      <c r="B70" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72" t="s">
-        <v>60</v>
-      </c>
-      <c r="C72" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>5</v>
-      </c>
-      <c r="B74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" t="s">
-        <v>19</v>
-      </c>
-      <c r="C75" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" t="s">
-        <v>22</v>
-      </c>
-      <c r="C76" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" t="s">
-        <v>28</v>
-      </c>
-      <c r="C78" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" t="s">
-        <v>32</v>
-      </c>
-      <c r="C79" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>5</v>
-      </c>
-      <c r="B80" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/api_routes_postman.xlsx
+++ b/api_routes_postman.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romelyn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3A8535-12C6-46AE-B5D9-94179A0AB3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE6CE44-40B5-4363-899F-C17E1B287457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="129">
   <si>
     <t>HTTP Method</t>
   </si>
@@ -142,9 +142,6 @@
     <t>sanctum/csrf-cookie</t>
   </si>
   <si>
-    <t>storage/{path}</t>
-  </si>
-  <si>
     <t>up</t>
   </si>
   <si>
@@ -224,13 +221,199 @@
   </si>
   <si>
     <t>api/maintenance-requests/{id}/cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/common-datas  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/directorpov/{id}  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/feedbacks  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/feedbacks/{id}/details  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/headpov/{id}  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/maintenance-requests  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/maintenance-requests/list-with-details  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/maintenance-requests/priority-numbers  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/maintenance-requests/{maintenance_request}  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/maintenance-types  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/maintenance-types/{maintenance_type}  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/message  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/notifications  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/notifications/unreadCount  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/offices  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/offices/{office}  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/pending-approvals  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/positions  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/positions/{position}  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/profile/userInfos  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/roles  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/roles/{role}  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/schedules  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/staffpov/{id}  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/statuses  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/statuses/{status}  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/test  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/users/idfullname  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/users/reqInfo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/users/userWithRole  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/users/{id}/fullname  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/uspass  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanctum/csrf-cookie  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">storage/{path}  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">up  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/addservice  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/login  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/logout  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/register  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/test-register  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/maintenance-requests/{id}/approve  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/maintenance-requests/{id}/approve-director  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/maintenance-requests/{id}/approve-head  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/maintenance-requests/{id}/cancel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/maintenance-requests/{id}/deny  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/maintenance-requests/{id}/disapprove  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/maintenance-requests/{id}/editDetails  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/maintenance-requests/{id}/mark-onhold  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/maintenance-requests/{id}/mark-urgent  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/maintenance-requests/{id}/verify  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/maintenance-requests/{id}/view  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/notifications/markAllAsRead  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/notifications/markAsRead/{id}  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/profile/update  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/users/{id}/updateAccountStatus  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUT </t>
+  </si>
+  <si>
+    <t>UPDATED API 05/26/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">api/feedbacks </t>
+  </si>
+  <si>
+    <t>200 ok</t>
+  </si>
+  <si>
+    <t>200  OK</t>
+  </si>
+  <si>
+    <t>API 05/25/25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +431,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -288,11 +478,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="105" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,12 +799,15 @@
     <col min="1" max="1" width="16.21875" customWidth="1"/>
     <col min="2" max="2" width="52.6640625" customWidth="1"/>
     <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="50" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="51.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,19 +815,27 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -641,39 +843,39 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -681,19 +883,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -701,39 +903,39 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="H6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="H7">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -741,19 +943,19 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -761,19 +963,19 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -781,19 +983,19 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -801,19 +1003,19 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="H11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -821,19 +1023,19 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -841,19 +1043,19 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="H13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -861,19 +1063,19 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -881,19 +1083,19 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -901,19 +1103,19 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="H16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -921,19 +1123,19 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -941,19 +1143,19 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="H18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -961,19 +1163,19 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="H19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -981,13 +1183,19 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="H20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -995,19 +1203,19 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="H21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1015,19 +1223,19 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="H22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1035,19 +1243,19 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="H23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1055,19 +1263,19 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="H24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1075,19 +1283,19 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="H25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -1095,19 +1303,19 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="H26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1115,19 +1323,19 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="H27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1135,19 +1343,19 @@
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="H28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1155,10 +1363,19 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1166,10 +1383,19 @@
         <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1177,10 +1403,19 @@
         <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>95</v>
+      </c>
+      <c r="H31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -1188,10 +1423,19 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1199,10 +1443,19 @@
         <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1212,30 +1465,56 @@
       <c r="C34" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="F34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>100</v>
+      </c>
+      <c r="H36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
         <v>41</v>
       </c>
-      <c r="C35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" t="s">
-        <v>42</v>
-      </c>
       <c r="C37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1243,43 +1522,61 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>102</v>
+      </c>
+      <c r="H38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>3</v>
       </c>
       <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
         <v>43</v>
       </c>
-      <c r="C39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
         <v>44</v>
       </c>
-      <c r="C40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" t="s">
-        <v>45</v>
-      </c>
       <c r="C41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="F41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1287,10 +1584,19 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="F42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1298,10 +1604,19 @@
         <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="F43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -1309,21 +1624,39 @@
         <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="F44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>105</v>
+      </c>
+      <c r="H44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="F45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" t="s">
+        <v>73</v>
+      </c>
+      <c r="H45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -1331,10 +1664,19 @@
         <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G46" t="s">
+        <v>77</v>
+      </c>
+      <c r="H46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -1342,10 +1684,19 @@
         <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" t="s">
+        <v>82</v>
+      </c>
+      <c r="H47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -1353,18 +1704,601 @@
         <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" t="s">
+        <v>85</v>
+      </c>
+      <c r="H48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>3</v>
       </c>
       <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F50" t="s">
+        <v>3</v>
+      </c>
+      <c r="G50" t="s">
+        <v>88</v>
+      </c>
+      <c r="H50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" t="s">
+        <v>92</v>
+      </c>
+      <c r="H51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
         <v>47</v>
       </c>
-      <c r="C49" t="s">
-        <v>59</v>
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55" t="s">
+        <v>123</v>
+      </c>
+      <c r="G55" t="s">
+        <v>108</v>
+      </c>
+      <c r="H55">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" t="s">
+        <v>58</v>
+      </c>
+      <c r="F56" t="s">
+        <v>123</v>
+      </c>
+      <c r="G56" t="s">
+        <v>109</v>
+      </c>
+      <c r="H56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" t="s">
+        <v>123</v>
+      </c>
+      <c r="G57" t="s">
+        <v>110</v>
+      </c>
+      <c r="H57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" t="s">
+        <v>58</v>
+      </c>
+      <c r="F58" t="s">
+        <v>123</v>
+      </c>
+      <c r="G58" t="s">
+        <v>111</v>
+      </c>
+      <c r="H58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C59" t="s">
+        <v>58</v>
+      </c>
+      <c r="F59" t="s">
+        <v>123</v>
+      </c>
+      <c r="G59" t="s">
+        <v>112</v>
+      </c>
+      <c r="H59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>58</v>
+      </c>
+      <c r="F60" t="s">
+        <v>123</v>
+      </c>
+      <c r="G60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61" t="s">
+        <v>114</v>
+      </c>
+      <c r="H61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" t="s">
+        <v>58</v>
+      </c>
+      <c r="F62" t="s">
+        <v>123</v>
+      </c>
+      <c r="G62" t="s">
+        <v>115</v>
+      </c>
+      <c r="H62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" t="s">
+        <v>58</v>
+      </c>
+      <c r="F63" t="s">
+        <v>123</v>
+      </c>
+      <c r="G63" t="s">
+        <v>116</v>
+      </c>
+      <c r="H63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" t="s">
+        <v>123</v>
+      </c>
+      <c r="G64" t="s">
+        <v>117</v>
+      </c>
+      <c r="H64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" t="s">
+        <v>58</v>
+      </c>
+      <c r="F65" t="s">
+        <v>123</v>
+      </c>
+      <c r="G65" t="s">
+        <v>118</v>
+      </c>
+      <c r="H65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" t="s">
+        <v>58</v>
+      </c>
+      <c r="F66" t="s">
+        <v>123</v>
+      </c>
+      <c r="G66" t="s">
+        <v>119</v>
+      </c>
+      <c r="H66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" t="s">
+        <v>58</v>
+      </c>
+      <c r="F67" t="s">
+        <v>123</v>
+      </c>
+      <c r="G67" t="s">
+        <v>120</v>
+      </c>
+      <c r="H67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" t="s">
+        <v>58</v>
+      </c>
+      <c r="F68" t="s">
+        <v>123</v>
+      </c>
+      <c r="G68" t="s">
+        <v>121</v>
+      </c>
+      <c r="H68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" t="s">
+        <v>58</v>
+      </c>
+      <c r="F69" t="s">
+        <v>123</v>
+      </c>
+      <c r="G69" t="s">
+        <v>122</v>
+      </c>
+      <c r="H69" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" t="s">
+        <v>58</v>
+      </c>
+      <c r="F72" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" t="s">
+        <v>76</v>
+      </c>
+      <c r="H72">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
+        <v>58</v>
+      </c>
+      <c r="F73" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" t="s">
+        <v>78</v>
+      </c>
+      <c r="H73">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" t="s">
+        <v>58</v>
+      </c>
+      <c r="F74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G74" t="s">
+        <v>83</v>
+      </c>
+      <c r="H74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" t="s">
+        <v>58</v>
+      </c>
+      <c r="F75" t="s">
+        <v>4</v>
+      </c>
+      <c r="G75" t="s">
+        <v>86</v>
+      </c>
+      <c r="H75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" t="s">
+        <v>58</v>
+      </c>
+      <c r="F76" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76" t="s">
+        <v>89</v>
+      </c>
+      <c r="H76" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" t="s">
+        <v>58</v>
+      </c>
+      <c r="F77" t="s">
+        <v>4</v>
+      </c>
+      <c r="G77" t="s">
+        <v>93</v>
+      </c>
+      <c r="H77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" t="s">
+        <v>76</v>
+      </c>
+      <c r="H80">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" t="s">
+        <v>78</v>
+      </c>
+      <c r="H81" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" t="s">
+        <v>83</v>
+      </c>
+      <c r="H82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" t="s">
+        <v>86</v>
+      </c>
+      <c r="H83" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F84" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" t="s">
+        <v>89</v>
+      </c>
+      <c r="H84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F85" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" t="s">
+        <v>93</v>
+      </c>
+      <c r="H85" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
